--- a/data/region/West Midlands_out_data.xlsx
+++ b/data/region/West Midlands_out_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,15 +494,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32104</v>
+      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4560</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,14 +528,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>30563</v>
+        <v>32104</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -554,14 +560,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="F4" t="n">
-        <v>30563</v>
+        <v>32103</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -586,14 +592,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="F5" t="n">
-        <v>30508</v>
+        <v>31958</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -618,14 +624,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="F6" t="n">
-        <v>30411</v>
+        <v>31607</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -650,14 +656,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>131</v>
+        <v>323</v>
       </c>
       <c r="F7" t="n">
-        <v>30271</v>
+        <v>31339</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -682,14 +688,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="F8" t="n">
-        <v>30140</v>
+        <v>31016</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -714,14 +720,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F9" t="n">
-        <v>30020</v>
+        <v>30769</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -746,14 +752,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>29879</v>
+        <v>30650</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -778,14 +784,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F11" t="n">
-        <v>29749</v>
+        <v>30556</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -810,14 +816,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-08-22</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="F12" t="n">
-        <v>29669</v>
+        <v>30444</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -842,14 +848,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F13" t="n">
-        <v>29593</v>
+        <v>30288</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -874,14 +880,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="F14" t="n">
-        <v>29488</v>
+        <v>30146</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -906,14 +912,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="F15" t="n">
-        <v>29325</v>
+        <v>30023</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -938,14 +944,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F16" t="n">
-        <v>29207</v>
+        <v>29881</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -970,14 +976,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>29098</v>
+        <v>29751</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1002,14 +1008,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>2020-08-22</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" t="n">
-        <v>28960</v>
+        <v>29671</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1034,14 +1040,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F19" t="n">
-        <v>28888</v>
+        <v>29595</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1066,14 +1072,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F20" t="n">
-        <v>28792</v>
+        <v>29490</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1098,14 +1104,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F21" t="n">
-        <v>28621</v>
+        <v>29327</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1130,14 +1136,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F22" t="n">
-        <v>28504</v>
+        <v>29209</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1162,14 +1168,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="F23" t="n">
-        <v>28372</v>
+        <v>29100</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1194,14 +1200,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="F24" t="n">
-        <v>28207</v>
+        <v>28962</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1226,14 +1232,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F25" t="n">
-        <v>28050</v>
+        <v>28890</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1258,14 +1264,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="F26" t="n">
-        <v>27974</v>
+        <v>28794</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1290,14 +1296,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F27" t="n">
-        <v>27901</v>
+        <v>28623</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1322,14 +1328,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F28" t="n">
-        <v>27796</v>
+        <v>28506</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1354,14 +1360,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="F29" t="n">
-        <v>27683</v>
+        <v>28374</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1386,14 +1392,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="F30" t="n">
-        <v>27590</v>
+        <v>28209</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1418,14 +1424,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F31" t="n">
-        <v>27492</v>
+        <v>28052</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1450,14 +1456,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-08-02</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F32" t="n">
-        <v>27404</v>
+        <v>27976</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1482,14 +1488,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F33" t="n">
-        <v>27362</v>
+        <v>27902</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1514,14 +1520,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F34" t="n">
-        <v>27308</v>
+        <v>27797</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1546,14 +1552,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F35" t="n">
-        <v>27227</v>
+        <v>27684</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1578,14 +1584,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F36" t="n">
-        <v>27147</v>
+        <v>27591</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1610,14 +1616,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" t="n">
-        <v>27057</v>
+        <v>27493</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1642,14 +1648,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>2020-08-02</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F38" t="n">
-        <v>26969</v>
+        <v>27404</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1674,14 +1680,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F39" t="n">
-        <v>26892</v>
+        <v>27362</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1706,14 +1712,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2020-07-25</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F40" t="n">
-        <v>26826</v>
+        <v>27308</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1738,14 +1744,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020-07-24</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F41" t="n">
-        <v>26759</v>
+        <v>27227</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1770,14 +1776,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>90</v>
       </c>
       <c r="F42" t="n">
-        <v>26681</v>
+        <v>27147</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1802,14 +1808,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F43" t="n">
-        <v>26591</v>
+        <v>27057</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1834,14 +1840,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F44" t="n">
-        <v>26513</v>
+        <v>26969</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1866,14 +1872,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F45" t="n">
-        <v>26433</v>
+        <v>26892</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1898,14 +1904,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-07-25</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F46" t="n">
-        <v>26350</v>
+        <v>26826</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1930,14 +1936,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-07-24</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F47" t="n">
-        <v>26310</v>
+        <v>26759</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1962,14 +1968,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F48" t="n">
-        <v>26259</v>
+        <v>26681</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F49" t="n">
-        <v>26192</v>
+        <v>26591</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2026,14 +2032,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F50" t="n">
-        <v>26127</v>
+        <v>26513</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2058,14 +2064,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F51" t="n">
-        <v>26020</v>
+        <v>26433</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2090,14 +2096,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F52" t="n">
-        <v>25949</v>
+        <v>26350</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2122,14 +2128,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2020-07-12</t>
+          <t>2020-07-18</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F53" t="n">
-        <v>25871</v>
+        <v>26310</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2154,14 +2160,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2020-07-11</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F54" t="n">
-        <v>25833</v>
+        <v>26259</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2186,14 +2192,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F55" t="n">
-        <v>25793</v>
+        <v>26192</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2218,14 +2224,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F56" t="n">
-        <v>25750</v>
+        <v>26127</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2250,14 +2256,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F57" t="n">
-        <v>25626</v>
+        <v>26020</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F58" t="n">
-        <v>25561</v>
+        <v>25949</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2314,14 +2320,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-12</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F59" t="n">
-        <v>25500</v>
+        <v>25871</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2346,14 +2352,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-07-11</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F60" t="n">
-        <v>25448</v>
+        <v>25833</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F61" t="n">
-        <v>25412</v>
+        <v>25793</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2410,14 +2416,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F62" t="n">
-        <v>25389</v>
+        <v>25750</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2442,14 +2448,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F63" t="n">
-        <v>25348</v>
+        <v>25626</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2474,14 +2480,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F64" t="n">
-        <v>25293</v>
+        <v>25561</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2506,14 +2512,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F65" t="n">
-        <v>25243</v>
+        <v>25500</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2538,14 +2544,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F66" t="n">
-        <v>25192</v>
+        <v>25448</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2570,14 +2576,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2020-07-04</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F67" t="n">
-        <v>25135</v>
+        <v>25412</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2602,14 +2608,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2020-06-27</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F68" t="n">
-        <v>25109</v>
+        <v>25389</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2634,14 +2640,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2020-06-26</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F69" t="n">
-        <v>25065</v>
+        <v>25348</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2666,14 +2672,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F70" t="n">
-        <v>24996</v>
+        <v>25293</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2698,14 +2704,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020-06-24</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F71" t="n">
-        <v>24940</v>
+        <v>25243</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2730,14 +2736,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F72" t="n">
-        <v>24886</v>
+        <v>25192</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2762,14 +2768,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F73" t="n">
-        <v>24833</v>
+        <v>25135</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2794,14 +2800,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2020-06-21</t>
+          <t>2020-06-27</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F74" t="n">
-        <v>24765</v>
+        <v>25109</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2826,14 +2832,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2020-06-20</t>
+          <t>2020-06-26</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F75" t="n">
-        <v>24727</v>
+        <v>25065</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-06-19</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F76" t="n">
-        <v>24679</v>
+        <v>24996</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2890,14 +2896,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2020-06-18</t>
+          <t>2020-06-24</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F77" t="n">
-        <v>24627</v>
+        <v>24940</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2922,14 +2928,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
+          <t>2020-06-23</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F78" t="n">
-        <v>24544</v>
+        <v>24885</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2020-06-16</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F79" t="n">
-        <v>24464</v>
+        <v>24832</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2986,14 +2992,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2020-06-15</t>
+          <t>2020-06-21</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F80" t="n">
-        <v>24359</v>
+        <v>24764</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3018,14 +3024,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2020-06-14</t>
+          <t>2020-06-20</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F81" t="n">
-        <v>24257</v>
+        <v>24727</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2020-06-13</t>
+          <t>2020-06-19</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F82" t="n">
-        <v>24182</v>
+        <v>24679</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3082,14 +3088,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-06-18</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F83" t="n">
-        <v>24096</v>
+        <v>24627</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3114,14 +3120,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F84" t="n">
-        <v>24020</v>
+        <v>24544</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020-06-10</t>
+          <t>2020-06-16</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F85" t="n">
-        <v>23928</v>
+        <v>24464</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3178,14 +3184,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2020-06-15</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F86" t="n">
-        <v>23836</v>
+        <v>24359</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3210,14 +3216,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>2020-06-14</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F87" t="n">
-        <v>23735</v>
+        <v>24257</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3242,14 +3248,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2020-06-07</t>
+          <t>2020-06-13</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F88" t="n">
-        <v>23615</v>
+        <v>24182</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3274,14 +3280,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F89" t="n">
-        <v>23551</v>
+        <v>24096</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3306,14 +3312,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F90" t="n">
-        <v>23474</v>
+        <v>24020</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2020-06-04</t>
+          <t>2020-06-10</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F91" t="n">
-        <v>23371</v>
+        <v>23928</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3370,14 +3376,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F92" t="n">
-        <v>23235</v>
+        <v>23836</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3402,14 +3408,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F93" t="n">
-        <v>23110</v>
+        <v>23735</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3434,14 +3440,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-06-07</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="F94" t="n">
-        <v>22985</v>
+        <v>23615</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3466,14 +3472,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2020-06-06</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>77</v>
       </c>
       <c r="F95" t="n">
-        <v>22861</v>
+        <v>23551</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3498,14 +3504,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F96" t="n">
-        <v>22784</v>
+        <v>23474</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3530,14 +3536,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020-05-29</t>
+          <t>2020-06-04</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F97" t="n">
-        <v>22668</v>
+        <v>23371</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3562,14 +3568,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="F98" t="n">
-        <v>22512</v>
+        <v>23235</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3594,14 +3600,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F99" t="n">
-        <v>22358</v>
+        <v>23110</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3626,14 +3632,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F100" t="n">
-        <v>22164</v>
+        <v>22984</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3658,14 +3664,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="F101" t="n">
-        <v>22013</v>
+        <v>22860</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3690,14 +3696,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2020-05-24</t>
+          <t>2020-05-30</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F102" t="n">
-        <v>21875</v>
+        <v>22783</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-29</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F103" t="n">
-        <v>21741</v>
+        <v>22667</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3754,14 +3760,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="F104" t="n">
-        <v>21593</v>
+        <v>22512</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3786,14 +3792,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="F105" t="n">
-        <v>21398</v>
+        <v>22357</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="F106" t="n">
-        <v>21173</v>
+        <v>22163</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3850,14 +3856,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>278</v>
+        <v>138</v>
       </c>
       <c r="F107" t="n">
-        <v>20920</v>
+        <v>22012</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3882,14 +3888,14 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="F108" t="n">
-        <v>20642</v>
+        <v>21874</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F109" t="n">
-        <v>20435</v>
+        <v>21740</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3946,14 +3952,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F110" t="n">
-        <v>20263</v>
+        <v>21592</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3978,14 +3984,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="F111" t="n">
-        <v>20088</v>
+        <v>21397</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4010,14 +4016,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F112" t="n">
-        <v>19825</v>
+        <v>21172</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -4042,14 +4048,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="F113" t="n">
-        <v>19567</v>
+        <v>20920</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -4074,14 +4080,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="F114" t="n">
-        <v>19323</v>
+        <v>20642</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="F115" t="n">
-        <v>19014</v>
+        <v>20435</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -4138,14 +4144,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="F116" t="n">
-        <v>18764</v>
+        <v>20263</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="F117" t="n">
-        <v>18547</v>
+        <v>20088</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4202,14 +4208,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="F118" t="n">
-        <v>18384</v>
+        <v>19825</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4234,14 +4240,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>368</v>
+        <v>244</v>
       </c>
       <c r="F119" t="n">
-        <v>18043</v>
+        <v>19567</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -4266,14 +4272,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F120" t="n">
-        <v>17675</v>
+        <v>19323</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -4298,14 +4304,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="F121" t="n">
-        <v>17361</v>
+        <v>19014</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -4330,14 +4336,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="F122" t="n">
-        <v>17043</v>
+        <v>18764</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -4362,14 +4368,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="F123" t="n">
-        <v>16808</v>
+        <v>18547</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="F124" t="n">
-        <v>16510</v>
+        <v>18384</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -4426,14 +4432,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>469</v>
+        <v>368</v>
       </c>
       <c r="F125" t="n">
-        <v>16193</v>
+        <v>18043</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4458,14 +4464,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>451</v>
+        <v>314</v>
       </c>
       <c r="F126" t="n">
-        <v>15724</v>
+        <v>17675</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4490,14 +4496,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>441</v>
+        <v>318</v>
       </c>
       <c r="F127" t="n">
-        <v>15273</v>
+        <v>17361</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -4522,14 +4528,14 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="F128" t="n">
-        <v>14832</v>
+        <v>17043</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4554,14 +4560,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>417</v>
+        <v>298</v>
       </c>
       <c r="F129" t="n">
-        <v>14455</v>
+        <v>16808</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -4586,14 +4592,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F130" t="n">
-        <v>14038</v>
+        <v>16510</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4618,14 +4624,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="F131" t="n">
-        <v>13723</v>
+        <v>16192</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="F132" t="n">
-        <v>13337</v>
+        <v>15723</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>551</v>
+        <v>441</v>
       </c>
       <c r="F133" t="n">
-        <v>12855</v>
+        <v>15272</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4714,14 +4720,14 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>578</v>
+        <v>377</v>
       </c>
       <c r="F134" t="n">
-        <v>12304</v>
+        <v>14831</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -4746,14 +4752,14 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="F135" t="n">
-        <v>11726</v>
+        <v>14454</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4778,14 +4784,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="F136" t="n">
-        <v>11235</v>
+        <v>14037</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4810,14 +4816,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="F137" t="n">
-        <v>10834</v>
+        <v>13722</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4842,14 +4848,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="F138" t="n">
-        <v>10494</v>
+        <v>13336</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -4874,14 +4880,14 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>445</v>
+        <v>551</v>
       </c>
       <c r="F139" t="n">
-        <v>9947</v>
+        <v>12855</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4906,14 +4912,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="F140" t="n">
-        <v>9502</v>
+        <v>12304</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4938,14 +4944,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>387</v>
+        <v>491</v>
       </c>
       <c r="F141" t="n">
-        <v>8991</v>
+        <v>11726</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -4970,14 +4976,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="F142" t="n">
-        <v>8604</v>
+        <v>11235</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -5002,14 +5008,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="F143" t="n">
-        <v>8283</v>
+        <v>10834</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -5034,14 +5040,14 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>239</v>
+        <v>547</v>
       </c>
       <c r="F144" t="n">
-        <v>8003</v>
+        <v>10494</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -5066,14 +5072,14 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>253</v>
+        <v>445</v>
       </c>
       <c r="F145" t="n">
-        <v>7764</v>
+        <v>9947</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -5098,14 +5104,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>362</v>
+        <v>511</v>
       </c>
       <c r="F146" t="n">
-        <v>7511</v>
+        <v>9502</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -5130,14 +5136,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="F147" t="n">
-        <v>7149</v>
+        <v>8991</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -5162,14 +5168,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="F148" t="n">
-        <v>6804</v>
+        <v>8604</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -5194,14 +5200,14 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>387</v>
+        <v>280</v>
       </c>
       <c r="F149" t="n">
-        <v>6443</v>
+        <v>8283</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -5226,14 +5232,14 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>360</v>
+        <v>239</v>
       </c>
       <c r="F150" t="n">
-        <v>6056</v>
+        <v>8003</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -5258,14 +5264,14 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="F151" t="n">
-        <v>5696</v>
+        <v>7764</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -5290,14 +5296,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F152" t="n">
-        <v>5406</v>
+        <v>7511</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -5322,14 +5328,14 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F153" t="n">
-        <v>5060</v>
+        <v>7149</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -5354,14 +5360,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="F154" t="n">
-        <v>4687</v>
+        <v>6804</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -5386,14 +5392,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="F155" t="n">
-        <v>4240</v>
+        <v>6443</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5418,14 +5424,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="F156" t="n">
-        <v>3830</v>
+        <v>6056</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -5450,14 +5456,14 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="F157" t="n">
-        <v>3418</v>
+        <v>5696</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -5482,14 +5488,14 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F158" t="n">
-        <v>2987</v>
+        <v>5406</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5514,14 +5520,14 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="F159" t="n">
-        <v>2621</v>
+        <v>5060</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5546,14 +5552,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>279</v>
+        <v>447</v>
       </c>
       <c r="F160" t="n">
-        <v>2298</v>
+        <v>4687</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -5578,14 +5584,14 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="F161" t="n">
-        <v>2019</v>
+        <v>4240</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -5610,14 +5616,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="F162" t="n">
-        <v>1706</v>
+        <v>3830</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5642,14 +5648,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="F163" t="n">
-        <v>1466</v>
+        <v>3419</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5674,14 +5680,14 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="F164" t="n">
-        <v>1216</v>
+        <v>2988</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -5706,14 +5712,14 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="F165" t="n">
-        <v>976</v>
+        <v>2622</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5738,14 +5744,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="F166" t="n">
-        <v>865</v>
+        <v>2299</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5770,14 +5776,14 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="F167" t="n">
-        <v>740</v>
+        <v>2020</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5802,14 +5808,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2020-03-25</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="F168" t="n">
-        <v>589</v>
+        <v>1707</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -5834,14 +5840,14 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-03-24</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="F169" t="n">
-        <v>466</v>
+        <v>1467</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5866,14 +5872,14 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="F170" t="n">
-        <v>367</v>
+        <v>1217</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5898,14 +5904,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F171" t="n">
-        <v>298</v>
+        <v>977</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -5930,14 +5936,14 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F172" t="n">
-        <v>242</v>
+        <v>865</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -5962,14 +5968,14 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F173" t="n">
-        <v>198</v>
+        <v>740</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -5994,14 +6000,14 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="F174" t="n">
-        <v>167</v>
+        <v>589</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -6026,14 +6032,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="F175" t="n">
-        <v>127</v>
+        <v>466</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -6058,14 +6064,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F176" t="n">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -6090,14 +6096,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F177" t="n">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -6122,14 +6128,14 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F178" t="n">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -6154,14 +6160,14 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F179" t="n">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -6186,14 +6192,14 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2020-03-07</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F180" t="n">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -6218,14 +6224,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F181" t="n">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -6250,14 +6256,14 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F182" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -6282,14 +6288,14 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -6314,14 +6320,14 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F184" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -6346,14 +6352,14 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-08</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>4</v>
       </c>
       <c r="F185" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -6378,14 +6384,14 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2020-03-01</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -6410,11 +6416,15 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>18</v>
+      </c>
       <c r="G187" t="n">
         <v>0</v>
       </c>
@@ -6438,11 +6448,15 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>16</v>
+      </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
@@ -6466,11 +6480,15 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
+      </c>
       <c r="G189" t="n">
         <v>0</v>
       </c>
@@ -6494,11 +6512,15 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7</v>
+      </c>
       <c r="G190" t="n">
         <v>0</v>
       </c>
@@ -6522,11 +6544,15 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6</v>
+      </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
@@ -6550,11 +6576,15 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
       <c r="G192" t="n">
         <v>0</v>
       </c>
@@ -6578,7 +6608,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2020-02-23</t>
+          <t>2020-02-29</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -6606,7 +6636,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2020-02-22</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -6634,7 +6664,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -6662,7 +6692,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -6690,7 +6720,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -6718,7 +6748,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -6746,7 +6776,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-23</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -6774,7 +6804,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2020-02-16</t>
+          <t>2020-02-22</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -6802,7 +6832,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2020-02-15</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -6830,7 +6860,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -6858,7 +6888,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -6886,7 +6916,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -6914,7 +6944,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -6942,7 +6972,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-02-16</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -6970,7 +7000,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2020-02-09</t>
+          <t>2020-02-15</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -6998,7 +7028,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2020-02-08</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -7026,7 +7056,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -7054,7 +7084,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -7082,7 +7112,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -7110,7 +7140,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -7138,7 +7168,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-02-09</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -7166,7 +7196,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2020-02-02</t>
+          <t>2020-02-08</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -7194,7 +7224,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2020-02-01</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -7222,7 +7252,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -7250,7 +7280,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -7278,7 +7308,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -7306,7 +7336,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -7334,7 +7364,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2020-01-27</t>
+          <t>2020-02-02</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -7362,7 +7392,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2020-01-26</t>
+          <t>2020-02-01</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -7390,7 +7420,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2020-01-25</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -7418,7 +7448,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -7446,7 +7476,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -7474,7 +7504,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -7502,7 +7532,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-27</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -7530,7 +7560,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-26</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -7558,7 +7588,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2020-01-19</t>
+          <t>2020-01-25</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -7586,7 +7616,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2020-01-18</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -7614,7 +7644,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -7642,7 +7672,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -7670,7 +7700,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -7698,7 +7728,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -7726,7 +7756,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-19</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -7754,7 +7784,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2020-01-12</t>
+          <t>2020-01-18</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -7782,7 +7812,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2020-01-11</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -7810,7 +7840,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -7838,7 +7868,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -7866,7 +7896,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -7894,7 +7924,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -7922,7 +7952,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-01-12</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -7950,7 +7980,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2020-01-05</t>
+          <t>2020-01-11</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -7978,7 +8008,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2020-01-04</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -8006,7 +8036,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -8015,6 +8045,174 @@
         <v>0</v>
       </c>
       <c r="H244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2020-01-05</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2020-01-04</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/region/West Midlands_out_data.xlsx
+++ b/data/region/West Midlands_out_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,20 +494,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32104</v>
-      </c>
+          <t>2020-10-13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>4560</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="3">
@@ -528,19 +524,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>32104</v>
+        <v>55197</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4701</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,19 +558,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>2020-10-11</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="F4" t="n">
-        <v>32103</v>
+        <v>55186</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4697</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,19 +592,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2020-10-10</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="F5" t="n">
-        <v>31958</v>
+        <v>54918</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>4681</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,19 +626,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>268</v>
+        <v>980</v>
       </c>
       <c r="F6" t="n">
-        <v>31607</v>
+        <v>54513</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4685</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -656,19 +660,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2020-10-08</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>323</v>
+        <v>1172</v>
       </c>
       <c r="F7" t="n">
-        <v>31339</v>
+        <v>53533</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4680</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,19 +694,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>247</v>
+        <v>1176</v>
       </c>
       <c r="F8" t="n">
-        <v>31016</v>
+        <v>52361</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4670</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,19 +728,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>119</v>
+        <v>1200</v>
       </c>
       <c r="F9" t="n">
-        <v>30769</v>
+        <v>51185</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4665</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,19 +762,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>1167</v>
       </c>
       <c r="F10" t="n">
-        <v>30650</v>
+        <v>49985</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4662</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,19 +796,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>112</v>
+        <v>685</v>
       </c>
       <c r="F11" t="n">
-        <v>30556</v>
+        <v>48818</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4658</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,19 +830,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>156</v>
+        <v>756</v>
       </c>
       <c r="F12" t="n">
-        <v>30444</v>
+        <v>48133</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4654</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -848,19 +864,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>142</v>
+        <v>929</v>
       </c>
       <c r="F13" t="n">
-        <v>30288</v>
+        <v>47377</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4646</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -880,19 +898,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2020-10-01</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>123</v>
+        <v>897</v>
       </c>
       <c r="F14" t="n">
-        <v>30146</v>
+        <v>46448</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4641</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -912,19 +932,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>142</v>
+        <v>971</v>
       </c>
       <c r="F15" t="n">
-        <v>30023</v>
+        <v>45551</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4637</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -944,19 +966,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>130</v>
+        <v>747</v>
       </c>
       <c r="F16" t="n">
-        <v>29881</v>
+        <v>44580</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4628</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -976,19 +1000,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>80</v>
+        <v>719</v>
       </c>
       <c r="F17" t="n">
-        <v>29751</v>
+        <v>43833</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4620</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1008,19 +1034,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-08-22</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="F18" t="n">
-        <v>29671</v>
+        <v>43114</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4619</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1040,19 +1068,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="F19" t="n">
-        <v>29595</v>
+        <v>42593</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4616</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1072,19 +1102,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>163</v>
+        <v>621</v>
       </c>
       <c r="F20" t="n">
-        <v>29490</v>
+        <v>42012</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4613</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1104,19 +1136,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2020-09-24</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>118</v>
+        <v>695</v>
       </c>
       <c r="F21" t="n">
-        <v>29327</v>
+        <v>41391</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4603</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1136,19 +1170,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2020-09-23</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>109</v>
+        <v>695</v>
       </c>
       <c r="F22" t="n">
-        <v>29209</v>
+        <v>40696</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4599</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1168,19 +1204,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>138</v>
+        <v>611</v>
       </c>
       <c r="F23" t="n">
-        <v>29100</v>
+        <v>40001</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4595</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1200,19 +1238,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>72</v>
+        <v>644</v>
       </c>
       <c r="F24" t="n">
-        <v>28962</v>
+        <v>39390</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>4582</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1232,19 +1272,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>96</v>
+        <v>591</v>
       </c>
       <c r="F25" t="n">
-        <v>28890</v>
+        <v>38746</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4584</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1264,19 +1306,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>171</v>
+        <v>583</v>
       </c>
       <c r="F26" t="n">
-        <v>28794</v>
+        <v>38155</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>4578</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1296,19 +1340,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>117</v>
+        <v>584</v>
       </c>
       <c r="F27" t="n">
-        <v>28623</v>
+        <v>37572</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4579</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1328,19 +1374,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>132</v>
+        <v>508</v>
       </c>
       <c r="F28" t="n">
-        <v>28506</v>
+        <v>36988</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4575</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1360,19 +1408,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>165</v>
+        <v>450</v>
       </c>
       <c r="F29" t="n">
-        <v>28374</v>
+        <v>36480</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4574</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1392,19 +1442,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="F30" t="n">
-        <v>28209</v>
+        <v>36030</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4572</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1424,19 +1476,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="F31" t="n">
-        <v>28052</v>
+        <v>35668</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>4567</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1456,19 +1510,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="F32" t="n">
-        <v>27976</v>
+        <v>35349</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4567</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1488,19 +1544,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2020-09-12</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="F33" t="n">
-        <v>27902</v>
+        <v>35136</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4566</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1520,19 +1578,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>2020-09-11</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>113</v>
+        <v>351</v>
       </c>
       <c r="F34" t="n">
-        <v>27797</v>
+        <v>34845</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>4565</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1552,19 +1612,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>93</v>
+        <v>385</v>
       </c>
       <c r="F35" t="n">
-        <v>27684</v>
+        <v>34494</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4565</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1584,19 +1646,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>98</v>
+        <v>388</v>
       </c>
       <c r="F36" t="n">
-        <v>27591</v>
+        <v>34109</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4564</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1616,19 +1680,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="F37" t="n">
-        <v>27493</v>
+        <v>33721</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4562</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1648,19 +1714,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2020-08-02</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42</v>
+        <v>486</v>
       </c>
       <c r="F38" t="n">
-        <v>27404</v>
+        <v>33296</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>4560</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1680,19 +1748,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="F39" t="n">
-        <v>27362</v>
+        <v>32810</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>4560</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1712,19 +1782,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="F40" t="n">
-        <v>27308</v>
+        <v>32492</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4560</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1744,19 +1816,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="F41" t="n">
-        <v>27227</v>
+        <v>32178</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>4558</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1776,19 +1850,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="F42" t="n">
-        <v>27147</v>
+        <v>31756</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4558</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1808,19 +1884,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="F43" t="n">
-        <v>27057</v>
+        <v>31390</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4556</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1840,19 +1918,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="F44" t="n">
-        <v>26969</v>
+        <v>31054</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>4554</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1872,19 +1952,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F45" t="n">
-        <v>26892</v>
+        <v>30794</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>4554</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1904,19 +1986,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2020-07-25</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F46" t="n">
-        <v>26826</v>
+        <v>30667</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4554</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1936,14 +2020,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-07-24</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F47" t="n">
-        <v>26759</v>
+        <v>30573</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1968,19 +2052,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="F48" t="n">
-        <v>26681</v>
+        <v>30459</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4552</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2000,19 +2086,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F49" t="n">
-        <v>26591</v>
+        <v>30302</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4550</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2032,19 +2120,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F50" t="n">
-        <v>26513</v>
+        <v>30158</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>4545</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2064,19 +2154,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F51" t="n">
-        <v>26433</v>
+        <v>30033</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>4545</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2096,19 +2188,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F52" t="n">
-        <v>26350</v>
+        <v>29890</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>4545</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2128,19 +2222,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F53" t="n">
-        <v>26310</v>
+        <v>29760</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4546</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2160,19 +2256,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>2020-08-22</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F54" t="n">
-        <v>26259</v>
+        <v>29678</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4545</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2192,19 +2290,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F55" t="n">
-        <v>26192</v>
+        <v>29602</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>4544</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2224,19 +2324,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="F56" t="n">
-        <v>26127</v>
+        <v>29497</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4545</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2256,19 +2358,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F57" t="n">
-        <v>26020</v>
+        <v>29334</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4544</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2288,19 +2392,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F58" t="n">
-        <v>25949</v>
+        <v>29216</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>4542</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2320,19 +2426,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-07-12</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="F59" t="n">
-        <v>25871</v>
+        <v>29106</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>4543</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2352,14 +2460,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2020-07-11</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F60" t="n">
-        <v>25833</v>
+        <v>28968</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2384,14 +2492,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F61" t="n">
-        <v>25793</v>
+        <v>28895</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2416,14 +2524,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F62" t="n">
-        <v>25750</v>
+        <v>28799</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2448,14 +2556,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F63" t="n">
-        <v>25626</v>
+        <v>28627</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2480,14 +2588,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="F64" t="n">
-        <v>25561</v>
+        <v>28510</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2512,14 +2620,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="F65" t="n">
-        <v>25500</v>
+        <v>28377</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2544,14 +2652,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="F66" t="n">
-        <v>25448</v>
+        <v>28213</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2576,14 +2684,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F67" t="n">
-        <v>25412</v>
+        <v>28055</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2608,14 +2716,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F68" t="n">
-        <v>25389</v>
+        <v>27979</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2640,14 +2748,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F69" t="n">
-        <v>25348</v>
+        <v>27905</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2672,14 +2780,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F70" t="n">
-        <v>25293</v>
+        <v>27800</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2704,14 +2812,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F71" t="n">
-        <v>25243</v>
+        <v>27686</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2736,14 +2844,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F72" t="n">
-        <v>25192</v>
+        <v>27591</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2768,14 +2876,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F73" t="n">
-        <v>25135</v>
+        <v>27493</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2800,14 +2908,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2020-06-27</t>
+          <t>2020-08-02</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F74" t="n">
-        <v>25109</v>
+        <v>27403</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2832,14 +2940,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2020-06-26</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F75" t="n">
-        <v>25065</v>
+        <v>27361</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2864,14 +2972,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F76" t="n">
-        <v>24996</v>
+        <v>27307</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2896,14 +3004,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2020-06-24</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F77" t="n">
-        <v>24940</v>
+        <v>27226</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2928,14 +3036,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F78" t="n">
-        <v>24885</v>
+        <v>27146</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2960,14 +3068,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F79" t="n">
-        <v>24832</v>
+        <v>27055</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2992,14 +3100,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2020-06-21</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F80" t="n">
-        <v>24764</v>
+        <v>26966</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3024,14 +3132,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2020-06-20</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F81" t="n">
-        <v>24727</v>
+        <v>26889</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3056,14 +3164,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2020-06-19</t>
+          <t>2020-07-25</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F82" t="n">
-        <v>24679</v>
+        <v>26824</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3088,14 +3196,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020-06-18</t>
+          <t>2020-07-24</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F83" t="n">
-        <v>24627</v>
+        <v>26757</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3120,14 +3228,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F84" t="n">
-        <v>24544</v>
+        <v>26679</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3152,14 +3260,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020-06-16</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F85" t="n">
-        <v>24464</v>
+        <v>26590</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3184,14 +3292,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-06-15</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F86" t="n">
-        <v>24359</v>
+        <v>26512</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3216,14 +3324,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-06-14</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F87" t="n">
-        <v>24257</v>
+        <v>26432</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3248,14 +3356,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2020-06-13</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F88" t="n">
-        <v>24182</v>
+        <v>26349</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3280,14 +3388,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-07-18</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F89" t="n">
-        <v>24096</v>
+        <v>26309</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3312,14 +3420,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F90" t="n">
-        <v>24020</v>
+        <v>26258</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3344,14 +3452,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2020-06-10</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F91" t="n">
-        <v>23928</v>
+        <v>26189</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3376,14 +3484,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F92" t="n">
-        <v>23836</v>
+        <v>26124</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3408,14 +3516,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F93" t="n">
-        <v>23735</v>
+        <v>26018</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3440,14 +3548,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2020-06-07</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F94" t="n">
-        <v>23615</v>
+        <v>25946</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3472,14 +3580,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
+          <t>2020-07-12</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F95" t="n">
-        <v>23551</v>
+        <v>25867</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3504,14 +3612,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2020-07-11</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F96" t="n">
-        <v>23474</v>
+        <v>25829</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3536,14 +3644,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020-06-04</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="F97" t="n">
-        <v>23371</v>
+        <v>25789</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3568,14 +3676,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F98" t="n">
-        <v>23235</v>
+        <v>25745</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3600,14 +3708,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F99" t="n">
-        <v>23110</v>
+        <v>25624</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3632,14 +3740,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="F100" t="n">
-        <v>22984</v>
+        <v>25558</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3664,14 +3772,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F101" t="n">
-        <v>22860</v>
+        <v>25498</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3696,14 +3804,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="F102" t="n">
-        <v>22783</v>
+        <v>25445</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3728,14 +3836,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2020-05-29</t>
+          <t>2020-07-04</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F103" t="n">
-        <v>22667</v>
+        <v>25409</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3760,14 +3868,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="F104" t="n">
-        <v>22512</v>
+        <v>25386</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3792,14 +3900,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F105" t="n">
-        <v>22357</v>
+        <v>25345</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3824,14 +3932,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="F106" t="n">
-        <v>22163</v>
+        <v>25290</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3856,14 +3964,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="F107" t="n">
-        <v>22012</v>
+        <v>25241</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3888,14 +3996,14 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2020-05-24</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="F108" t="n">
-        <v>21874</v>
+        <v>25190</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3920,14 +4028,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>21740</v>
+        <v>25133</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3952,14 +4060,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-06-27</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="F110" t="n">
-        <v>21592</v>
+        <v>25108</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3984,14 +4092,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-06-26</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="F111" t="n">
-        <v>21397</v>
+        <v>25064</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4016,14 +4124,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="F112" t="n">
-        <v>21172</v>
+        <v>24995</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -4048,14 +4156,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-06-24</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="F113" t="n">
-        <v>20920</v>
+        <v>24939</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -4080,14 +4188,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-06-23</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="F114" t="n">
-        <v>20642</v>
+        <v>24885</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -4112,14 +4220,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="F115" t="n">
-        <v>20435</v>
+        <v>24832</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -4144,14 +4252,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-06-21</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="F116" t="n">
-        <v>20263</v>
+        <v>24765</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4176,14 +4284,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-06-20</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="F117" t="n">
-        <v>20088</v>
+        <v>24728</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4208,14 +4316,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-06-19</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="F118" t="n">
-        <v>19825</v>
+        <v>24680</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4240,14 +4348,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-06-18</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="F119" t="n">
-        <v>19567</v>
+        <v>24629</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -4272,14 +4380,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="F120" t="n">
-        <v>19323</v>
+        <v>24546</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -4304,14 +4412,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-06-16</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="F121" t="n">
-        <v>19014</v>
+        <v>24466</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -4336,14 +4444,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-06-15</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="F122" t="n">
-        <v>18764</v>
+        <v>24362</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -4368,14 +4476,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-06-14</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="F123" t="n">
-        <v>18547</v>
+        <v>24260</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4400,14 +4508,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-06-13</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="F124" t="n">
-        <v>18384</v>
+        <v>24185</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -4432,14 +4540,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="F125" t="n">
-        <v>18043</v>
+        <v>24099</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4464,14 +4572,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="F126" t="n">
-        <v>17675</v>
+        <v>24023</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4496,14 +4604,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-06-10</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>318</v>
+        <v>91</v>
       </c>
       <c r="F127" t="n">
-        <v>17361</v>
+        <v>23932</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -4528,14 +4636,14 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="F128" t="n">
-        <v>17043</v>
+        <v>23841</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4560,14 +4668,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="F129" t="n">
-        <v>16808</v>
+        <v>23740</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -4592,14 +4700,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-06-07</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="F130" t="n">
-        <v>16510</v>
+        <v>23620</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4624,14 +4732,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-06-06</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="F131" t="n">
-        <v>16192</v>
+        <v>23556</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4656,14 +4764,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>451</v>
+        <v>103</v>
       </c>
       <c r="F132" t="n">
-        <v>15723</v>
+        <v>23479</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4688,14 +4796,14 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-06-04</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>441</v>
+        <v>136</v>
       </c>
       <c r="F133" t="n">
-        <v>15272</v>
+        <v>23376</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4720,14 +4828,14 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>377</v>
+        <v>125</v>
       </c>
       <c r="F134" t="n">
-        <v>14831</v>
+        <v>23240</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -4752,14 +4860,14 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>417</v>
+        <v>125</v>
       </c>
       <c r="F135" t="n">
-        <v>14454</v>
+        <v>23115</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4784,14 +4892,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="F136" t="n">
-        <v>14037</v>
+        <v>22990</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4816,14 +4924,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="F137" t="n">
-        <v>13722</v>
+        <v>22865</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4848,14 +4956,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-05-30</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>481</v>
+        <v>115</v>
       </c>
       <c r="F138" t="n">
-        <v>13336</v>
+        <v>22787</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -4880,14 +4988,14 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-05-29</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>551</v>
+        <v>155</v>
       </c>
       <c r="F139" t="n">
-        <v>12855</v>
+        <v>22672</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4912,14 +5020,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>578</v>
+        <v>154</v>
       </c>
       <c r="F140" t="n">
-        <v>12304</v>
+        <v>22517</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4944,14 +5052,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>491</v>
+        <v>193</v>
       </c>
       <c r="F141" t="n">
-        <v>11726</v>
+        <v>22363</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -4976,14 +5084,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>401</v>
+        <v>152</v>
       </c>
       <c r="F142" t="n">
-        <v>11235</v>
+        <v>22170</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -5008,14 +5116,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="F143" t="n">
-        <v>10834</v>
+        <v>22018</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -5040,14 +5148,14 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>547</v>
+        <v>134</v>
       </c>
       <c r="F144" t="n">
-        <v>10494</v>
+        <v>21880</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -5072,14 +5180,14 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="F145" t="n">
-        <v>9947</v>
+        <v>21746</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -5104,14 +5212,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>511</v>
+        <v>196</v>
       </c>
       <c r="F146" t="n">
-        <v>9502</v>
+        <v>21598</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -5136,14 +5244,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>387</v>
+        <v>226</v>
       </c>
       <c r="F147" t="n">
-        <v>8991</v>
+        <v>21402</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -5168,14 +5276,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="F148" t="n">
-        <v>8604</v>
+        <v>21176</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -5200,14 +5308,14 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F149" t="n">
-        <v>8283</v>
+        <v>20924</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -5232,14 +5340,14 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="F150" t="n">
-        <v>8003</v>
+        <v>20646</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -5264,14 +5372,14 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="F151" t="n">
-        <v>7764</v>
+        <v>20438</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -5296,14 +5404,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="F152" t="n">
-        <v>7511</v>
+        <v>20266</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -5328,14 +5436,14 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="F153" t="n">
-        <v>7149</v>
+        <v>20091</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -5360,14 +5468,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>361</v>
+        <v>258</v>
       </c>
       <c r="F154" t="n">
-        <v>6804</v>
+        <v>19825</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -5392,14 +5500,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="F155" t="n">
-        <v>6443</v>
+        <v>19567</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5424,14 +5532,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="F156" t="n">
-        <v>6056</v>
+        <v>19323</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -5456,14 +5564,14 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="F157" t="n">
-        <v>5696</v>
+        <v>19015</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -5488,14 +5596,14 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="F158" t="n">
-        <v>5406</v>
+        <v>18767</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5520,14 +5628,14 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="F159" t="n">
-        <v>5060</v>
+        <v>18550</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5552,14 +5660,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="F160" t="n">
-        <v>4687</v>
+        <v>18387</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -5584,14 +5692,14 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="F161" t="n">
-        <v>4240</v>
+        <v>18046</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -5616,14 +5724,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="F162" t="n">
-        <v>3830</v>
+        <v>17677</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5648,14 +5756,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>431</v>
+        <v>317</v>
       </c>
       <c r="F163" t="n">
-        <v>3419</v>
+        <v>17363</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5680,14 +5788,14 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>366</v>
+        <v>235</v>
       </c>
       <c r="F164" t="n">
-        <v>2988</v>
+        <v>17046</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -5712,14 +5820,14 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="F165" t="n">
-        <v>2622</v>
+        <v>16811</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5744,14 +5852,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="F166" t="n">
-        <v>2299</v>
+        <v>16514</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5776,14 +5884,14 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>313</v>
+        <v>469</v>
       </c>
       <c r="F167" t="n">
-        <v>2020</v>
+        <v>16196</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5808,14 +5916,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>240</v>
+        <v>452</v>
       </c>
       <c r="F168" t="n">
-        <v>1707</v>
+        <v>15727</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -5840,14 +5948,14 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>250</v>
+        <v>441</v>
       </c>
       <c r="F169" t="n">
-        <v>1467</v>
+        <v>15275</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5872,14 +5980,14 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>240</v>
+        <v>376</v>
       </c>
       <c r="F170" t="n">
-        <v>1217</v>
+        <v>14834</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5904,14 +6012,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>112</v>
+        <v>418</v>
       </c>
       <c r="F171" t="n">
-        <v>977</v>
+        <v>14458</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -5936,14 +6044,14 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="F172" t="n">
-        <v>865</v>
+        <v>14040</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -5968,14 +6076,14 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="F173" t="n">
-        <v>740</v>
+        <v>13725</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6000,14 +6108,14 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>123</v>
+        <v>482</v>
       </c>
       <c r="F174" t="n">
-        <v>589</v>
+        <v>13339</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -6032,14 +6140,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>99</v>
+        <v>550</v>
       </c>
       <c r="F175" t="n">
-        <v>466</v>
+        <v>12857</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -6064,14 +6172,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>69</v>
+        <v>578</v>
       </c>
       <c r="F176" t="n">
-        <v>367</v>
+        <v>12307</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -6096,14 +6204,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="F177" t="n">
-        <v>298</v>
+        <v>11729</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -6128,14 +6236,14 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="F178" t="n">
-        <v>242</v>
+        <v>11237</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -6160,14 +6268,14 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="F179" t="n">
-        <v>198</v>
+        <v>10836</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -6192,14 +6300,14 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>40</v>
+        <v>547</v>
       </c>
       <c r="F180" t="n">
-        <v>167</v>
+        <v>10496</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -6224,14 +6332,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46</v>
+        <v>445</v>
       </c>
       <c r="F181" t="n">
-        <v>127</v>
+        <v>9949</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -6256,14 +6364,14 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29</v>
+        <v>511</v>
       </c>
       <c r="F182" t="n">
-        <v>81</v>
+        <v>9504</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -6288,14 +6396,14 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="F183" t="n">
-        <v>52</v>
+        <v>8993</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -6320,14 +6428,14 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="F184" t="n">
-        <v>35</v>
+        <v>8606</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -6352,14 +6460,14 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="F185" t="n">
-        <v>27</v>
+        <v>8284</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -6384,14 +6492,14 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2020-03-07</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="F186" t="n">
-        <v>23</v>
+        <v>8003</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -6416,14 +6524,14 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="F187" t="n">
-        <v>18</v>
+        <v>7764</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -6448,14 +6556,14 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="F188" t="n">
-        <v>16</v>
+        <v>7511</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -6480,14 +6588,14 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>7149</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -6512,14 +6620,14 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="F190" t="n">
-        <v>7</v>
+        <v>6804</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -6544,14 +6652,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="F191" t="n">
-        <v>6</v>
+        <v>6443</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -6576,14 +6684,14 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2020-03-01</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>6056</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -6608,11 +6716,15 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>290</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5696</v>
+      </c>
       <c r="G193" t="n">
         <v>0</v>
       </c>
@@ -6636,11 +6748,15 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
+          <t>2020-04-04</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>346</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5406</v>
+      </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
@@ -6664,11 +6780,15 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>372</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5060</v>
+      </c>
       <c r="G195" t="n">
         <v>0</v>
       </c>
@@ -6692,11 +6812,15 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>447</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4688</v>
+      </c>
       <c r="G196" t="n">
         <v>0</v>
       </c>
@@ -6720,11 +6844,15 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>410</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4241</v>
+      </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
@@ -6748,11 +6876,15 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>412</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3831</v>
+      </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
@@ -6776,11 +6908,15 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2020-02-23</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>431</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3419</v>
+      </c>
       <c r="G199" t="n">
         <v>0</v>
       </c>
@@ -6804,11 +6940,15 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2020-02-22</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>366</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2988</v>
+      </c>
       <c r="G200" t="n">
         <v>0</v>
       </c>
@@ -6832,11 +6972,15 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>323</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2622</v>
+      </c>
       <c r="G201" t="n">
         <v>0</v>
       </c>
@@ -6860,11 +7004,15 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>279</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2299</v>
+      </c>
       <c r="G202" t="n">
         <v>0</v>
       </c>
@@ -6888,11 +7036,15 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>313</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2020</v>
+      </c>
       <c r="G203" t="n">
         <v>0</v>
       </c>
@@ -6916,11 +7068,15 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>240</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1707</v>
+      </c>
       <c r="G204" t="n">
         <v>0</v>
       </c>
@@ -6944,11 +7100,15 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>250</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1467</v>
+      </c>
       <c r="G205" t="n">
         <v>0</v>
       </c>
@@ -6972,11 +7132,15 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2020-02-16</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>239</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1217</v>
+      </c>
       <c r="G206" t="n">
         <v>0</v>
       </c>
@@ -7000,11 +7164,15 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2020-02-15</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>112</v>
+      </c>
+      <c r="F207" t="n">
+        <v>978</v>
+      </c>
       <c r="G207" t="n">
         <v>0</v>
       </c>
@@ -7028,11 +7196,15 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>125</v>
+      </c>
+      <c r="F208" t="n">
+        <v>866</v>
+      </c>
       <c r="G208" t="n">
         <v>0</v>
       </c>
@@ -7056,11 +7228,15 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>151</v>
+      </c>
+      <c r="F209" t="n">
+        <v>741</v>
+      </c>
       <c r="G209" t="n">
         <v>0</v>
       </c>
@@ -7084,11 +7260,15 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>123</v>
+      </c>
+      <c r="F210" t="n">
+        <v>590</v>
+      </c>
       <c r="G210" t="n">
         <v>0</v>
       </c>
@@ -7112,11 +7292,15 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>99</v>
+      </c>
+      <c r="F211" t="n">
+        <v>467</v>
+      </c>
       <c r="G211" t="n">
         <v>0</v>
       </c>
@@ -7140,11 +7324,15 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>69</v>
+      </c>
+      <c r="F212" t="n">
+        <v>368</v>
+      </c>
       <c r="G212" t="n">
         <v>0</v>
       </c>
@@ -7168,11 +7356,15 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2020-02-09</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>56</v>
+      </c>
+      <c r="F213" t="n">
+        <v>299</v>
+      </c>
       <c r="G213" t="n">
         <v>0</v>
       </c>
@@ -7196,11 +7388,15 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2020-02-08</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>44</v>
+      </c>
+      <c r="F214" t="n">
+        <v>243</v>
+      </c>
       <c r="G214" t="n">
         <v>0</v>
       </c>
@@ -7224,11 +7420,15 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
+          <t>2020-03-14</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>31</v>
+      </c>
+      <c r="F215" t="n">
+        <v>199</v>
+      </c>
       <c r="G215" t="n">
         <v>0</v>
       </c>
@@ -7252,11 +7452,15 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>40</v>
+      </c>
+      <c r="F216" t="n">
+        <v>168</v>
+      </c>
       <c r="G216" t="n">
         <v>0</v>
       </c>
@@ -7280,11 +7484,15 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>46</v>
+      </c>
+      <c r="F217" t="n">
+        <v>128</v>
+      </c>
       <c r="G217" t="n">
         <v>0</v>
       </c>
@@ -7308,11 +7516,15 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>29</v>
+      </c>
+      <c r="F218" t="n">
+        <v>82</v>
+      </c>
       <c r="G218" t="n">
         <v>0</v>
       </c>
@@ -7336,11 +7548,15 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>17</v>
+      </c>
+      <c r="F219" t="n">
+        <v>53</v>
+      </c>
       <c r="G219" t="n">
         <v>0</v>
       </c>
@@ -7364,11 +7580,15 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2020-02-02</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>36</v>
+      </c>
       <c r="G220" t="n">
         <v>0</v>
       </c>
@@ -7392,11 +7612,15 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2020-02-01</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
+          <t>2020-03-08</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
       <c r="G221" t="n">
         <v>0</v>
       </c>
@@ -7420,11 +7644,15 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
+          <t>2020-03-07</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>6</v>
+      </c>
+      <c r="F222" t="n">
+        <v>24</v>
+      </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
@@ -7448,11 +7676,15 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>18</v>
+      </c>
       <c r="G223" t="n">
         <v>0</v>
       </c>
@@ -7476,11 +7708,15 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>6</v>
+      </c>
+      <c r="F224" t="n">
+        <v>16</v>
+      </c>
       <c r="G224" t="n">
         <v>0</v>
       </c>
@@ -7504,11 +7740,15 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10</v>
+      </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
@@ -7532,11 +7772,15 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2020-01-27</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7</v>
+      </c>
       <c r="G226" t="n">
         <v>0</v>
       </c>
@@ -7560,11 +7804,15 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2020-01-26</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>6</v>
+      </c>
       <c r="G227" t="n">
         <v>0</v>
       </c>
@@ -7588,11 +7836,15 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2020-01-25</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2</v>
+      </c>
       <c r="G228" t="n">
         <v>0</v>
       </c>
@@ -7616,7 +7868,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-02-29</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -7644,7 +7896,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -7672,7 +7924,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -7700,7 +7952,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -7728,7 +7980,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -7756,7 +8008,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2020-01-19</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -7784,7 +8036,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2020-01-18</t>
+          <t>2020-02-23</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -7812,7 +8064,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-02-22</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -7840,7 +8092,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -7868,7 +8120,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -7896,7 +8148,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -7924,7 +8176,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -7952,7 +8204,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2020-01-12</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -7980,7 +8232,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2020-01-11</t>
+          <t>2020-02-16</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -8008,7 +8260,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-02-15</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -8036,7 +8288,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -8064,7 +8316,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -8092,7 +8344,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -8120,7 +8372,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -8148,7 +8400,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2020-01-05</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -8176,7 +8428,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2020-01-04</t>
+          <t>2020-02-09</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -8204,7 +8456,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2020-02-08</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -8213,6 +8465,1014 @@
         <v>0</v>
       </c>
       <c r="H250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2020-02-07</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2020-02-06</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2020-02-04</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2020-02-03</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2020-02-02</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2020-01-31</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2020-01-30</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2020-01-28</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2020-01-27</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2020-01-26</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2020-01-25</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2020-01-24</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2020-01-22</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2020-01-21</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2020-01-20</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2020-01-19</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2020-01-18</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2020-01-12</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2020-01-11</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2020-01-05</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2020-01-04</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>E12000005</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
